--- a/salida/regiones.xlsx
+++ b/salida/regiones.xlsx
@@ -443,413 +443,413 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL SURESTE DE AFGANISTáN </t>
+          <t xml:space="preserve"> NOROESTE DE LAS ISLAS KURILES </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> YUNNAN, CHINA </t>
+          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CRETA, GRECIA </t>
+          <t xml:space="preserve"> ALASKA PENINSULA </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA DE LA COSTA DE OREGON </t>
+          <t xml:space="preserve"> TIMOR REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
+          <t xml:space="preserve"> JÓNICO </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
+          <t xml:space="preserve"> NORTE DE ARGELIA </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SICHUAN, CHINA </t>
+          <t xml:space="preserve"> OESTE CHILE RISE </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUR DE XINJIANG, CHINA </t>
+          <t xml:space="preserve"> CHILE-BOLIVIA FRONTERA REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SURESTE DE LAS ISLAS DE LEALTAD (LOYALTY) </t>
+          <t xml:space="preserve"> HOKKAIDO, JAPAN REGION </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAR BANDA </t>
+          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA ESTE DE KAMCHATKA </t>
+          <t xml:space="preserve"> NUEVA GUINEA, PAPUA NUEVA GUINEA </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS KERMADAC, NUEVA ZELANDA </t>
+          <t xml:space="preserve"> CANAL DE LA MONA </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESTRECHO DE SUNDA, INDONESIA </t>
+          <t xml:space="preserve"> CENTRAL DE ITALIA </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS SANTA CRUZ </t>
+          <t xml:space="preserve"> FLORES DEL MAR </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS KERMADAC </t>
+          <t xml:space="preserve"> REGIÓN DE LAS ISLAS SAMOA </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TAYIKISTÁN-XINJIANG REGIÓN FRONTERA </t>
+          <t xml:space="preserve"> KAZAJSTáN ORIENTAL </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUR DE ALASKA </t>
+          <t xml:space="preserve"> CERCA DE COSTA DE NICARAGUA </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ALASKA CENTRAL </t>
+          <t xml:space="preserve"> AFGANISTÁN-TAYIKISTÁN FRONT. REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HALMAHERA, INDONESIA </t>
+          <t xml:space="preserve"> TAIWÁN </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
+          <t xml:space="preserve"> CERCA LA COSTA ESTE DE KAMCHATKA </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA DE COSTA DE GUATEMALA </t>
+          <t xml:space="preserve"> ISLA NORTE, NUEVA ZELANDA </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
+          <t xml:space="preserve"> ISLAS SUR DE SANDWICH REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> N DE LAS ISLAS ARU REGIÓ INDONESIA </t>
+          <t xml:space="preserve"> MAR BEAUFORT </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL SUR DE IRáN </t>
+          <t xml:space="preserve"> ISLAS KURILES </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
+          <t xml:space="preserve"> JAVA, INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
+          <t xml:space="preserve"> ISLAS SUR DE SANDWICH REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CANAL DE LA MONA </t>
+          <t xml:space="preserve"> CHILE-BOLIVIA FRONTERA REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SURESTE DE LAS ISLAS DE LEALTAD (LOYALTY) </t>
+          <t xml:space="preserve"> CERCA LA COSTA ESTE DE KAMCHATKA </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
+          <t xml:space="preserve"> SICHUAN, CHINA </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PAKISTÁN </t>
+          <t xml:space="preserve"> BAFFIN REGIÓN DE LA ISLA, CANADA </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NORTE DE MAR DE LAS MOLUCAS </t>
+          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIÓN NUEVA IRLANDA, PNG </t>
+          <t xml:space="preserve"> ISLA DE ANDREANOF, ISLAS ALEUTIANAS </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS SALOMÓN </t>
+          <t xml:space="preserve"> ISLAS KURILES </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ECUADOR </t>
+          <t xml:space="preserve"> AFGANISTÁN-TAYIKISTÁN FRONT. REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL NORTE DE XINJIANG, CHINA </t>
+          <t xml:space="preserve"> CERCA LA COSTA CENTRAL DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
+          <t xml:space="preserve"> CHIPRE REGIóN </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
+          <t xml:space="preserve"> ESTE DEL LAGO BAIKAL, RUSIA </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS SANTA CRUZ </t>
+          <t xml:space="preserve"> CERCA LA COSTA DE PERÚ </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL OESTE DE TEXAS </t>
+          <t xml:space="preserve"> PANAMÁ-COSTA RICA REGIÓN FRONTERA </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
+          <t xml:space="preserve"> CERCA LA COSTA CENTRAL DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EN EL NORTE DE INDIA </t>
+          <t xml:space="preserve"> CERCA LA COSTA CENTRAL DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
+          <t xml:space="preserve"> REGIÓN DE LAS ISLAS KERMADAC </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
+          <t xml:space="preserve"> LUZON, FILIPINAS </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
+          <t xml:space="preserve"> ESTE MAR DE JAPÓN </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OAXACA, MÉXICO </t>
+          <t xml:space="preserve"> SUROESTE DE ÁFRICA </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
+          <t xml:space="preserve"> ESTRECHO DE GIBRALTAR </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUR DE PANAMÁ </t>
+          <t xml:space="preserve"> EL SURESTE DE AFGANISTáN </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
+          <t xml:space="preserve"> YUNNAN, CHINA </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> E. RUSIA-NE CHINA FRONTERA REGIÓN </t>
+          <t xml:space="preserve"> CRETA, GRECIA </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SICHUAN, CHINA </t>
+          <t xml:space="preserve"> CERCA DE LA COSTA DE OREGON </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TAIWÁN </t>
+          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VOLCAN ISLAS, JAPÓN REGIÓN </t>
+          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS SUR DE SANDWICH REGIÓN </t>
+          <t xml:space="preserve"> SICHUAN, CHINA </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL SUR DE AUSTRALIA </t>
+          <t xml:space="preserve"> ISLAS VANUATU </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MINDANAO, FILIPINAS </t>
+          <t xml:space="preserve"> SUR DE XINJIANG, CHINA </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NUEVA BRETAÑA, PNG </t>
+          <t xml:space="preserve"> AL SURESTE DE LAS ISLAS DE LEALTAD (LOYALTY) </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OESTE DE LA ISLA MACQUARIE </t>
+          <t xml:space="preserve"> MAR BANDA </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PENíNSULA DE KAMCHATKA, RUSIA </t>
+          <t xml:space="preserve"> CERCA LA COSTA ESTE DE KAMCHATKA </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA CENTRAL DE CHILE </t>
+          <t xml:space="preserve"> ISLAS KERMADAC, NUEVA ZELANDA </t>
         </is>
       </c>
     </row>
@@ -863,280 +863,280 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JAVA, INDONESIA </t>
+          <t xml:space="preserve"> ISLAS SANTA CRUZ </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAR BANDA </t>
+          <t xml:space="preserve"> AL SUR DE LAS ISLAS KERMADAC </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRENTE A LA COSTA DE CENTROAMÉRICA </t>
+          <t xml:space="preserve"> TAYIKISTÁN-XINJIANG REGIÓN FRONTERA </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> EL SUR DE IRáN </t>
+          <t xml:space="preserve"> SUR DE ALASKA </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROVINCIA DE SAN JUAN, ARGENTINA </t>
+          <t xml:space="preserve"> ALASKA CENTRAL </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OESTE DE LA ISLA MACQUARIE </t>
+          <t xml:space="preserve"> HALMAHERA, INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
+          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MINAHASSA PENINSULA, SULAWESI </t>
+          <t xml:space="preserve"> CERCA DE COSTA DE GUATEMALA </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MINDANAO, FILIPINAS </t>
+          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LUZON, FILIPINAS </t>
+          <t xml:space="preserve"> N DE LAS ISLAS ARU REGIÓ INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS MARIANA </t>
+          <t xml:space="preserve"> EL SUR DE IRáN </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAR BANDA </t>
+          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KOMANDORSKIYE OSTROVA REGION </t>
+          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA DE PERÚ </t>
+          <t xml:space="preserve"> CANAL DE LA MONA </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
+          <t xml:space="preserve"> AL SURESTE DE LAS ISLAS DE LEALTAD (LOYALTY) </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA CENTRAL DE CHILE </t>
+          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VERACRUZ, MÉXICO </t>
+          <t xml:space="preserve"> PAKISTÁN </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RUSIA-MONGOLIA FRONTERA REGIÓN </t>
+          <t xml:space="preserve"> NORTE DE MAR DE LAS MOLUCAS </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROVINCIA DE SALTA, ARGENTINA </t>
+          <t xml:space="preserve"> REGIÓN NUEVA IRLANDA, PNG </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
+          <t xml:space="preserve"> ISLAS SALOMÓN </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIÓN DE LAS ISLAS TONGA </t>
+          <t xml:space="preserve"> ECUADOR </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS SANTA CRUZ </t>
+          <t xml:space="preserve"> EL NORTE DE XINJIANG, CHINA </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NORTE DORSAL MEDIO-ATLANTICA </t>
+          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NORTE DORSAL MEDIO-ATLANTICA </t>
+          <t xml:space="preserve"> CERCA LA COSTA E. DE HONSHU, JAPóN </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SUR DORSAL MEDIO-ATLANTICA </t>
+          <t xml:space="preserve"> ISLAS SANTA CRUZ </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLA DE ANDREANOF, ISLAS ALEUTIANAS </t>
+          <t xml:space="preserve"> EL OESTE DE TEXAS </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REGIÓN DE LAS ISLAS TONGA </t>
+          <t xml:space="preserve"> EN EL NORTE DE CHILE </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
+          <t xml:space="preserve"> EN EL NORTE DE INDIA </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PACIFICO-ANTARTICO RIDGE </t>
+          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS TONGA </t>
+          <t xml:space="preserve"> REGIóN DE TAIWáN </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA OESTE DE HONSHU, JAPóN </t>
+          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
+          <t xml:space="preserve"> OAXACA, MÉXICO </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CERCA LA COSTA DE S. HONSHU, JAPóN </t>
+          <t xml:space="preserve"> ISLAS FIJI REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AFGANISTÁN-TAYIKISTÁN FRONT. REGIÓN </t>
+          <t xml:space="preserve"> SUR DE PANAMÁ </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
+          <t xml:space="preserve"> SOUTHWEST OF SUMATRA, INDONESIA </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ISLAS BONIN, JAPON REGIÓN </t>
+          <t xml:space="preserve"> E. RUSIA-NE CHINA FRONTERA REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL SUR DE LAS ISLAS FIJI </t>
+          <t xml:space="preserve"> SICHUAN, CHINA </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QINGHAI, CHINA </t>
+          <t xml:space="preserve"> TAIWÁN </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> REYKJANES RIDGE </t>
+          <t xml:space="preserve"> VOLCAN ISLAS, JAPÓN REGIÓN </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESTE DE NEW GUINEA REG., PNG </t>
+          <t xml:space="preserve"> ISLAS SUR DE SANDWICH REGIÓN </t>
         </is>
       </c>
     </row>
